--- a/tools/CCPA/CCPA_regulations.xlsx
+++ b/tools/CCPA/CCPA_regulations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imanabshirali/Desktop/stage MAi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59636A69-5C02-FD48-B599-44451E226890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B7FC12-FDA6-3049-BB1B-D316B5E19868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4407,8 +4407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F1841"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="64" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5141,9 +5141,6 @@
       </c>
     </row>
     <row r="55" spans="1:6" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
-        <v>662</v>
-      </c>
       <c r="B55" s="11">
         <v>4</v>
       </c>
@@ -6605,7 +6602,9 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A148" s="11"/>
+      <c r="A148" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="B148" s="11">
         <v>4</v>
       </c>
